--- a/variant_10/Задание 9/9.xlsx
+++ b/variant_10/Задание 9/9.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\YandexDisk\BeeGeek\ИНформатика\2020-2021\Варианты\4 вариант\Файлы\Задание 9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93D64D-83A0-4A23-A3E7-FB62FC1E9CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -133,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -185,7 +179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,23 +373,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -469,7 +463,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44440</v>
       </c>
@@ -545,8 +539,20 @@
       <c r="Y2" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4">
+        <f>AVERAGE(B2:Y2)</f>
+        <v>18.249999999999996</v>
+      </c>
+      <c r="AA2">
+        <f>IF(Z2 &lt;= 20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <f>SUM(AA:AA)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44441</v>
       </c>
@@ -622,8 +628,16 @@
       <c r="Y3" s="4">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z66" si="0">AVERAGE(B3:Y3)</f>
+        <v>17.445833333333336</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA66" si="1">IF(Z3 &lt;= 20,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44442</v>
       </c>
@@ -699,8 +713,16 @@
       <c r="Y4" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z4" s="4">
+        <f t="shared" si="0"/>
+        <v>17.687499999999996</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44443</v>
       </c>
@@ -776,8 +798,16 @@
       <c r="Y5" s="4">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z5" s="4">
+        <f t="shared" si="0"/>
+        <v>17.904166666666665</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44444</v>
       </c>
@@ -853,8 +883,16 @@
       <c r="Y6" s="4">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z6" s="4">
+        <f t="shared" si="0"/>
+        <v>17.479166666666668</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44445</v>
       </c>
@@ -930,8 +968,16 @@
       <c r="Y7" s="4">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z7" s="4">
+        <f t="shared" si="0"/>
+        <v>17.729166666666668</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44446</v>
       </c>
@@ -1007,8 +1053,16 @@
       <c r="Y8" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z8" s="4">
+        <f t="shared" si="0"/>
+        <v>17.712500000000002</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44447</v>
       </c>
@@ -1084,9 +1138,16 @@
       <c r="Y9" s="4">
         <v>17</v>
       </c>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4">
+        <f t="shared" si="0"/>
+        <v>17.783333333333331</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44448</v>
       </c>
@@ -1162,8 +1223,16 @@
       <c r="Y10" s="4">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z10" s="4">
+        <f t="shared" si="0"/>
+        <v>18.037500000000001</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44449</v>
       </c>
@@ -1239,8 +1308,16 @@
       <c r="Y11" s="4">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z11" s="4">
+        <f t="shared" si="0"/>
+        <v>18.141666666666669</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44450</v>
       </c>
@@ -1316,8 +1393,16 @@
       <c r="Y12" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z12" s="4">
+        <f t="shared" si="0"/>
+        <v>17.779166666666665</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44451</v>
       </c>
@@ -1393,8 +1478,16 @@
       <c r="Y13" s="4">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z13" s="4">
+        <f t="shared" si="0"/>
+        <v>17.970833333333331</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44452</v>
       </c>
@@ -1470,8 +1563,16 @@
       <c r="Y14" s="4">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z14" s="4">
+        <f t="shared" si="0"/>
+        <v>17.654166666666665</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44453</v>
       </c>
@@ -1547,8 +1648,16 @@
       <c r="Y15" s="4">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z15" s="4">
+        <f t="shared" si="0"/>
+        <v>18.237499999999997</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44454</v>
       </c>
@@ -1624,8 +1733,16 @@
       <c r="Y16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="4">
+        <f t="shared" si="0"/>
+        <v>17.954166666666669</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44455</v>
       </c>
@@ -1701,8 +1818,16 @@
       <c r="Y17" s="4">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="4">
+        <f t="shared" si="0"/>
+        <v>18.250000000000004</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44456</v>
       </c>
@@ -1778,8 +1903,16 @@
       <c r="Y18" s="4">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="4">
+        <f t="shared" si="0"/>
+        <v>17.69166666666667</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44457</v>
       </c>
@@ -1855,8 +1988,16 @@
       <c r="Y19" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="4">
+        <f t="shared" si="0"/>
+        <v>17.387499999999999</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44458</v>
       </c>
@@ -1932,8 +2073,16 @@
       <c r="Y20" s="4">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="4">
+        <f t="shared" si="0"/>
+        <v>17.358333333333331</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44459</v>
       </c>
@@ -2009,8 +2158,16 @@
       <c r="Y21" s="4">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="4">
+        <f t="shared" si="0"/>
+        <v>17.691666666666663</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44460</v>
       </c>
@@ -2086,8 +2243,16 @@
       <c r="Y22" s="4">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="4">
+        <f t="shared" si="0"/>
+        <v>17.841666666666665</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44461</v>
       </c>
@@ -2163,8 +2328,16 @@
       <c r="Y23" s="4">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="4">
+        <f t="shared" si="0"/>
+        <v>17.866666666666667</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44462</v>
       </c>
@@ -2240,8 +2413,16 @@
       <c r="Y24" s="4">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24" s="4">
+        <f t="shared" si="0"/>
+        <v>17.716666666666665</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44463</v>
       </c>
@@ -2317,8 +2498,16 @@
       <c r="Y25" s="4">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" s="4">
+        <f t="shared" si="0"/>
+        <v>17.920833333333334</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44464</v>
       </c>
@@ -2394,8 +2583,16 @@
       <c r="Y26" s="4">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" s="4">
+        <f t="shared" si="0"/>
+        <v>17.641666666666673</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44465</v>
       </c>
@@ -2471,8 +2668,16 @@
       <c r="Y27" s="4">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" s="4">
+        <f t="shared" si="0"/>
+        <v>17.962500000000002</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44466</v>
       </c>
@@ -2548,8 +2753,16 @@
       <c r="Y28" s="4">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="4">
+        <f t="shared" si="0"/>
+        <v>17.512499999999996</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44467</v>
       </c>
@@ -2625,8 +2838,16 @@
       <c r="Y29" s="4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="4">
+        <f t="shared" si="0"/>
+        <v>17.349999999999998</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44468</v>
       </c>
@@ -2702,8 +2923,16 @@
       <c r="Y30" s="4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30" s="4">
+        <f t="shared" si="0"/>
+        <v>17.812500000000004</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44469</v>
       </c>
@@ -2779,8 +3008,16 @@
       <c r="Y31" s="4">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="4">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44470</v>
       </c>
@@ -2856,8 +3093,16 @@
       <c r="Y32" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32" s="4">
+        <f t="shared" si="0"/>
+        <v>22.229166666666668</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44471</v>
       </c>
@@ -2933,8 +3178,16 @@
       <c r="Y33" s="4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" s="4">
+        <f t="shared" si="0"/>
+        <v>22.662500000000005</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44472</v>
       </c>
@@ -3010,8 +3263,16 @@
       <c r="Y34" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" s="4">
+        <f t="shared" si="0"/>
+        <v>22.954166666666666</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44473</v>
       </c>
@@ -3087,8 +3348,16 @@
       <c r="Y35" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" s="4">
+        <f t="shared" si="0"/>
+        <v>22.729166666666668</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44474</v>
       </c>
@@ -3164,8 +3433,16 @@
       <c r="Y36" s="4">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36" s="4">
+        <f t="shared" si="0"/>
+        <v>22.674999999999997</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44475</v>
       </c>
@@ -3241,8 +3518,16 @@
       <c r="Y37" s="4">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37" s="4">
+        <f t="shared" si="0"/>
+        <v>22.691666666666666</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44476</v>
       </c>
@@ -3318,8 +3603,16 @@
       <c r="Y38" s="4">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38" s="4">
+        <f t="shared" si="0"/>
+        <v>22.658333333333331</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44477</v>
       </c>
@@ -3395,8 +3688,16 @@
       <c r="Y39" s="4">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39" s="4">
+        <f t="shared" si="0"/>
+        <v>22.562499999999996</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44478</v>
       </c>
@@ -3472,8 +3773,16 @@
       <c r="Y40" s="4">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40" s="4">
+        <f t="shared" si="0"/>
+        <v>22.954166666666666</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44479</v>
       </c>
@@ -3549,8 +3858,16 @@
       <c r="Y41" s="4">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="4">
+        <f t="shared" si="0"/>
+        <v>22.095833333333331</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44480</v>
       </c>
@@ -3626,8 +3943,16 @@
       <c r="Y42" s="4">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42" s="4">
+        <f t="shared" si="0"/>
+        <v>22.387499999999999</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44481</v>
       </c>
@@ -3703,8 +4028,16 @@
       <c r="Y43" s="4">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43" s="4">
+        <f t="shared" si="0"/>
+        <v>22.641666666666666</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44482</v>
       </c>
@@ -3780,8 +4113,16 @@
       <c r="Y44" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44" s="4">
+        <f t="shared" si="0"/>
+        <v>22.424999999999997</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44483</v>
       </c>
@@ -3857,8 +4198,16 @@
       <c r="Y45" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45" s="4">
+        <f t="shared" si="0"/>
+        <v>22.333333333333329</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44484</v>
       </c>
@@ -3934,8 +4283,16 @@
       <c r="Y46" s="4">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46" s="4">
+        <f t="shared" si="0"/>
+        <v>22.741666666666664</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44485</v>
       </c>
@@ -4011,8 +4368,16 @@
       <c r="Y47" s="4">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47" s="4">
+        <f t="shared" si="0"/>
+        <v>23.075000000000003</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44486</v>
       </c>
@@ -4088,8 +4453,16 @@
       <c r="Y48" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48" s="4">
+        <f t="shared" si="0"/>
+        <v>22.758333333333336</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44487</v>
       </c>
@@ -4165,8 +4538,16 @@
       <c r="Y49" s="4">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49" s="4">
+        <f t="shared" si="0"/>
+        <v>22.291666666666668</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44488</v>
       </c>
@@ -4242,8 +4623,16 @@
       <c r="Y50" s="4">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50" s="4">
+        <f t="shared" si="0"/>
+        <v>22.224999999999998</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44489</v>
       </c>
@@ -4319,8 +4708,16 @@
       <c r="Y51" s="4">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51" s="4">
+        <f t="shared" si="0"/>
+        <v>22.612499999999997</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44490</v>
       </c>
@@ -4396,8 +4793,16 @@
       <c r="Y52" s="4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z52" s="4">
+        <f t="shared" si="0"/>
+        <v>22.887499999999999</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44491</v>
       </c>
@@ -4473,8 +4878,16 @@
       <c r="Y53" s="4">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53" s="4">
+        <f t="shared" si="0"/>
+        <v>22.875</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44492</v>
       </c>
@@ -4550,8 +4963,16 @@
       <c r="Y54" s="4">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54" s="4">
+        <f t="shared" si="0"/>
+        <v>22.929166666666671</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44493</v>
       </c>
@@ -4627,8 +5048,16 @@
       <c r="Y55" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55" s="4">
+        <f t="shared" si="0"/>
+        <v>22.316666666666663</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44494</v>
       </c>
@@ -4704,8 +5133,16 @@
       <c r="Y56" s="4">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56" s="4">
+        <f t="shared" si="0"/>
+        <v>22.399999999999995</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44495</v>
       </c>
@@ -4781,8 +5218,16 @@
       <c r="Y57" s="4">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57" s="4">
+        <f t="shared" si="0"/>
+        <v>22.733333333333338</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44496</v>
       </c>
@@ -4858,8 +5303,16 @@
       <c r="Y58" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="4">
+        <f t="shared" si="0"/>
+        <v>22.379166666666666</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44497</v>
       </c>
@@ -4935,8 +5388,16 @@
       <c r="Y59" s="4">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59" s="4">
+        <f t="shared" si="0"/>
+        <v>22.470833333333335</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44498</v>
       </c>
@@ -5012,8 +5473,16 @@
       <c r="Y60" s="4">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z60" s="4">
+        <f t="shared" si="0"/>
+        <v>22.779166666666665</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44499</v>
       </c>
@@ -5089,8 +5558,16 @@
       <c r="Y61" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61" s="4">
+        <f t="shared" si="0"/>
+        <v>22.762499999999992</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44500</v>
       </c>
@@ -5166,8 +5643,16 @@
       <c r="Y62" s="4">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62" s="4">
+        <f t="shared" si="0"/>
+        <v>22.729166666666668</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44501</v>
       </c>
@@ -5243,8 +5728,16 @@
       <c r="Y63" s="4">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63" s="4">
+        <f t="shared" si="0"/>
+        <v>29.491666666666664</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44502</v>
       </c>
@@ -5320,8 +5813,16 @@
       <c r="Y64" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64" s="4">
+        <f t="shared" si="0"/>
+        <v>29.954166666666666</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44503</v>
       </c>
@@ -5397,8 +5898,16 @@
       <c r="Y65" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65" s="4">
+        <f t="shared" si="0"/>
+        <v>29.325000000000003</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44504</v>
       </c>
@@ -5474,8 +5983,16 @@
       <c r="Y66" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66" s="4">
+        <f t="shared" si="0"/>
+        <v>29.55</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44505</v>
       </c>
@@ -5551,8 +6068,16 @@
       <c r="Y67" s="4">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67" s="4">
+        <f t="shared" ref="Z67:Z92" si="2">AVERAGE(B67:Y67)</f>
+        <v>29.479166666666657</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA92" si="3">IF(Z67 &lt;= 20,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44506</v>
       </c>
@@ -5628,8 +6153,16 @@
       <c r="Y68" s="4">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68" s="4">
+        <f t="shared" si="2"/>
+        <v>29.070833333333336</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44507</v>
       </c>
@@ -5705,8 +6238,16 @@
       <c r="Y69" s="4">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69" s="4">
+        <f t="shared" si="2"/>
+        <v>29.224999999999998</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44508</v>
       </c>
@@ -5782,8 +6323,16 @@
       <c r="Y70" s="4">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70" s="4">
+        <f t="shared" si="2"/>
+        <v>29.349999999999994</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44509</v>
       </c>
@@ -5859,8 +6408,16 @@
       <c r="Y71" s="4">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z71" s="4">
+        <f t="shared" si="2"/>
+        <v>29.512500000000003</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44510</v>
       </c>
@@ -5936,8 +6493,16 @@
       <c r="Y72" s="4">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z72" s="4">
+        <f t="shared" si="2"/>
+        <v>29.512500000000003</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44511</v>
       </c>
@@ -6013,8 +6578,16 @@
       <c r="Y73" s="4">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z73" s="4">
+        <f t="shared" si="2"/>
+        <v>29.329166666666666</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44512</v>
       </c>
@@ -6090,8 +6663,16 @@
       <c r="Y74" s="4">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74" s="4">
+        <f t="shared" si="2"/>
+        <v>29.920833333333331</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44513</v>
       </c>
@@ -6167,8 +6748,16 @@
       <c r="Y75" s="4">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75" s="4">
+        <f t="shared" si="2"/>
+        <v>29.258333333333336</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44514</v>
       </c>
@@ -6244,8 +6833,16 @@
       <c r="Y76" s="4">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76" s="4">
+        <f t="shared" si="2"/>
+        <v>29.437500000000004</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44515</v>
       </c>
@@ -6321,8 +6918,16 @@
       <c r="Y77" s="4">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77" s="4">
+        <f t="shared" si="2"/>
+        <v>29.591666666666665</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44516</v>
       </c>
@@ -6398,8 +7003,16 @@
       <c r="Y78" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78" s="4">
+        <f t="shared" si="2"/>
+        <v>29.779166666666665</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44517</v>
       </c>
@@ -6475,8 +7088,16 @@
       <c r="Y79" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79" s="4">
+        <f t="shared" si="2"/>
+        <v>29.612500000000008</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44518</v>
       </c>
@@ -6552,8 +7173,16 @@
       <c r="Y80" s="4">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80" s="4">
+        <f t="shared" si="2"/>
+        <v>29.595833333333342</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44519</v>
       </c>
@@ -6629,8 +7258,16 @@
       <c r="Y81" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z81" s="4">
+        <f t="shared" si="2"/>
+        <v>29.791666666666668</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44520</v>
       </c>
@@ -6706,8 +7343,16 @@
       <c r="Y82" s="4">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z82" s="4">
+        <f t="shared" si="2"/>
+        <v>29.116666666666671</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44521</v>
       </c>
@@ -6783,8 +7428,16 @@
       <c r="Y83" s="4">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z83" s="4">
+        <f t="shared" si="2"/>
+        <v>29.220833333333331</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44522</v>
       </c>
@@ -6860,8 +7513,16 @@
       <c r="Y84" s="4">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z84" s="4">
+        <f t="shared" si="2"/>
+        <v>29.054166666666671</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44523</v>
       </c>
@@ -6937,8 +7598,16 @@
       <c r="Y85" s="4">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z85" s="4">
+        <f t="shared" si="2"/>
+        <v>29.362499999999994</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44524</v>
       </c>
@@ -7014,8 +7683,16 @@
       <c r="Y86" s="4">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z86" s="4">
+        <f t="shared" si="2"/>
+        <v>29.441666666666663</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44525</v>
       </c>
@@ -7091,8 +7768,16 @@
       <c r="Y87" s="4">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z87" s="4">
+        <f t="shared" si="2"/>
+        <v>29.391666666666666</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44526</v>
       </c>
@@ -7168,8 +7853,16 @@
       <c r="Y88" s="4">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z88" s="4">
+        <f t="shared" si="2"/>
+        <v>29.462500000000002</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44527</v>
       </c>
@@ -7245,8 +7938,16 @@
       <c r="Y89" s="4">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z89" s="4">
+        <f t="shared" si="2"/>
+        <v>28.787499999999998</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44528</v>
       </c>
@@ -7322,8 +8023,16 @@
       <c r="Y90" s="4">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z90" s="4">
+        <f t="shared" si="2"/>
+        <v>29.287499999999994</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44529</v>
       </c>
@@ -7399,8 +8108,16 @@
       <c r="Y91" s="4">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z91" s="4">
+        <f t="shared" si="2"/>
+        <v>29.566666666666666</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44530</v>
       </c>
@@ -7476,11 +8193,19 @@
       <c r="Y92" s="4">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92" s="4">
+        <f t="shared" si="2"/>
+        <v>29.499999999999996</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
